--- a/model/Auswertung/Infografiken/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Qwen/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>61.20401337792642</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>60.86956521739131</v>
+      </c>
+      <c r="G2" t="n">
         <v>41</v>
       </c>
-      <c r="F2" t="n">
-        <v>56.09756097560976</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>18</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22</v>
       </c>
       <c r="I2" t="n">
         <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
+        <v>51.21951219512195</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.34146341463415</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>43.90243902439025</v>
+      </c>
+      <c r="P2" t="n">
+        <v>48.78048780487805</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.4390243902439024</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.6101694915254238</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>41.69693450485698</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>25.13575317537745</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>269</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>269</v>
       </c>
       <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>103.7174721189591</v>
+      </c>
+      <c r="G3" t="n">
         <v>47</v>
       </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>47</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>102.1276595744681</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102.1276595744681</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>71.42857142857143</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>70</v>
       </c>
       <c r="E4" t="n">
+        <v>66</v>
+      </c>
+      <c r="F4" t="n">
+        <v>138.7755102040816</v>
+      </c>
+      <c r="G4" t="n">
         <v>13</v>
       </c>
-      <c r="F4" t="n">
-        <v>92.30769230769231</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
+        <v>184.6153846153846</v>
+      </c>
+      <c r="M4" t="n">
+        <v>184.6153846153846</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.07692307692307693</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>100</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>9.594503055152631e-230</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>542</v>
       </c>
       <c r="C5" t="n">
-        <v>61.80811808118081</v>
+        <v>229</v>
       </c>
       <c r="D5" t="n">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>57.7490774907749</v>
+      </c>
+      <c r="G5" t="n">
         <v>88</v>
       </c>
-      <c r="F5" t="n">
-        <v>68.18181818181817</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>29</v>
       </c>
-      <c r="H5" t="n">
-        <v>33</v>
-      </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
+        <v>26.13636363636364</v>
+      </c>
+      <c r="M5" t="n">
+        <v>25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>32.95454545454545</v>
+      </c>
+      <c r="P5" t="n">
+        <v>34.09090909090909</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.3295454545454545</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.4957264957264957</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>76.47180899106448</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>11.89246921230587</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>414</v>
       </c>
       <c r="C6" t="n">
-        <v>36.95652173913043</v>
+        <v>372</v>
       </c>
       <c r="D6" t="n">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.14492753623188</v>
+      </c>
+      <c r="G6" t="n">
         <v>60</v>
       </c>
-      <c r="F6" t="n">
-        <v>48.33333333333334</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>51</v>
       </c>
-      <c r="H6" t="n">
-        <v>53</v>
-      </c>
       <c r="I6" t="n">
+        <v>51</v>
+      </c>
+      <c r="J6" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>85</v>
+      </c>
+      <c r="P6" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9285714285714286</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>93.85319124498348</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>68.28586857939179</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>300</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="D7" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24.33333333333334</v>
+      </c>
+      <c r="G7" t="n">
         <v>49</v>
       </c>
-      <c r="F7" t="n">
-        <v>36.73469387755102</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>37</v>
       </c>
-      <c r="H7" t="n">
-        <v>41</v>
-      </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
+        <v>24.48979591836735</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>75.51020408163265</v>
+      </c>
+      <c r="P7" t="n">
+        <v>79.59183673469387</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.7959183673469388</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.8863636363636364</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>91.97063153150732</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>53.92432513282476</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>252</v>
       </c>
       <c r="C8" t="n">
-        <v>86.50793650793651</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>84.12698412698413</v>
+      </c>
+      <c r="G8" t="n">
         <v>32</v>
       </c>
-      <c r="F8" t="n">
-        <v>93.75</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>30</v>
-      </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
+        <v>103.125</v>
+      </c>
+      <c r="M8" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9.375</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.0625</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>20.44914812494951</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>9.947332754141221e-155</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>547</v>
       </c>
       <c r="C9" t="n">
-        <v>72.0292504570384</v>
+        <v>195</v>
       </c>
       <c r="D9" t="n">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E9" t="n">
+        <v>183</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.80621572212065</v>
+      </c>
+      <c r="G9" t="n">
         <v>79</v>
       </c>
-      <c r="F9" t="n">
-        <v>88.60759493670885</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>10</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>16</v>
       </c>
-      <c r="I9" t="n">
-        <v>64</v>
-      </c>
       <c r="J9" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="L9" t="n">
+        <v>126.5822784810127</v>
+      </c>
+      <c r="M9" t="n">
+        <v>118.9873417721519</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>12.65822784810127</v>
+      </c>
+      <c r="P9" t="n">
+        <v>20.25316455696203</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.1392405063291139</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.2444444444444444</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>81.26212917606202</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>5.612899445044192</v>
       </c>
     </row>

--- a/model/Auswertung/Infografiken/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Qwen/results.xlsx
@@ -577,19 +577,19 @@
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>0.5854</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4878</v>
+        <v>0.4634</v>
       </c>
       <c r="N2" t="n">
         <v>0.84</v>
       </c>
       <c r="O2" t="n">
-        <v>0.913</v>
+        <v>0.9545</v>
       </c>
       <c r="P2" t="n">
         <v>0.5122</v>
@@ -601,7 +601,7 @@
         <v>0.6364</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6774</v>
+        <v>0.6885</v>
       </c>
       <c r="T2" t="n">
         <v>0.417</v>
@@ -690,28 +690,28 @@
         <v>98</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3878</v>
+        <v>0.0408</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -720,34 +720,34 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.8462</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.8462</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0769</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0769</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0769</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0769</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0769</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0769</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -775,10 +775,10 @@
         <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
         <v>7</v>
@@ -787,31 +787,31 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2841</v>
+        <v>0.2614</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2614</v>
+        <v>0.2273</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9091</v>
+        <v>0.9114</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9211</v>
+        <v>0.9351</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7955</v>
+        <v>0.8182</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8046</v>
+        <v>0.8276</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8485</v>
+        <v>0.8623</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8589</v>
+        <v>0.878</v>
       </c>
       <c r="T5" t="n">
         <v>0.7647</v>
@@ -900,28 +900,28 @@
         <v>300</v>
       </c>
       <c r="B7" t="n">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2433</v>
+        <v>0.1633</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -930,34 +930,34 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2857</v>
+        <v>0.1633</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2041</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8889</v>
+        <v>0.9362</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9302</v>
+        <v>0.9778</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8163</v>
+        <v>0.898</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8511</v>
+        <v>0.9362</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8511</v>
+        <v>0.9167</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8889</v>
+        <v>0.9565</v>
       </c>
       <c r="T7" t="n">
         <v>0.9197</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5392</v>
+        <v>0.5924</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -985,49 +985,49 @@
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.0625</v>
+        <v>0.8125</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0625</v>
+        <v>0.1875</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0645</v>
+        <v>0.1875</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1053</v>
+        <v>0.3158</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1111</v>
+        <v>0.3158</v>
       </c>
       <c r="T8" t="n">
         <v>0.2045</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0131</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1040,64 +1040,64 @@
         <v>547</v>
       </c>
       <c r="B9" t="n">
-        <v>195</v>
+        <v>378</v>
       </c>
       <c r="C9" t="n">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="D9" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9781</v>
+        <v>0.309</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="H9" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I9" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3544</v>
+        <v>0.2911</v>
       </c>
       <c r="M9" t="n">
-        <v>1.2025</v>
+        <v>0.2911</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2586</v>
+        <v>0.9828</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2885</v>
+        <v>0.9828</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1899</v>
+        <v>0.7215</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2055</v>
+        <v>0.7215</v>
       </c>
       <c r="R9" t="n">
-        <v>0.219</v>
+        <v>0.8321</v>
       </c>
       <c r="S9" t="n">
-        <v>0.24</v>
+        <v>0.8321</v>
       </c>
       <c r="T9" t="n">
         <v>0.8126</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0561</v>
+        <v>0.4148</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>

--- a/model/Auswertung/Infografiken/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Qwen/results.xlsx
@@ -547,31 +547,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B2" t="n">
         <v>118</v>
       </c>
       <c r="C2" t="n">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6087</v>
+        <v>0.5776</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -580,34 +580,34 @@
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5854</v>
+        <v>0.641</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4634</v>
+        <v>0.5128</v>
       </c>
       <c r="N2" t="n">
-        <v>0.84</v>
+        <v>0.7917</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9545</v>
+        <v>0.9048</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5122</v>
+        <v>0.4872</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5385</v>
+        <v>0.5135</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6364</v>
+        <v>0.6032</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6885</v>
+        <v>0.6552</v>
       </c>
       <c r="T2" t="n">
-        <v>0.417</v>
+        <v>0.377</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2514</v>
+        <v>0.2516</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0372</v>
+        <v>1.0389</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0408</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B5" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" t="n">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5775</v>
+        <v>0.5624</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B6" t="n">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1014</v>
+        <v>0.0759</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B7" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1633</v>
+        <v>0.1197</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8413</v>
+        <v>0.834</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B9" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C9" t="n">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.309</v>
+        <v>0.3044</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
